--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Angpt4-Tek.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Angpt4-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Angpt4</t>
+  </si>
+  <si>
+    <t>Tek</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Angpt4</t>
-  </si>
-  <si>
-    <t>Tek</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.05953266666666667</v>
+        <v>2.365546333333333</v>
       </c>
       <c r="H2">
-        <v>0.178598</v>
+        <v>7.096639</v>
       </c>
       <c r="I2">
-        <v>0.01698622882665692</v>
+        <v>0.6866153222176684</v>
       </c>
       <c r="J2">
-        <v>0.01698622882665692</v>
+        <v>0.6866153222176683</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.10446833333333</v>
+        <v>53.457377</v>
       </c>
       <c r="N2">
-        <v>102.313405</v>
+        <v>160.372131</v>
       </c>
       <c r="O2">
-        <v>0.5118942073015388</v>
+        <v>0.6217639481372091</v>
       </c>
       <c r="P2">
-        <v>0.5118942073015388</v>
+        <v>0.6217639481372091</v>
       </c>
       <c r="Q2">
-        <v>2.030329945132222</v>
+        <v>126.4559021519676</v>
       </c>
       <c r="R2">
-        <v>18.27296950619</v>
+        <v>1138.103119367709</v>
       </c>
       <c r="S2">
-        <v>0.008695152140264093</v>
+        <v>0.4269126535935595</v>
       </c>
       <c r="T2">
-        <v>0.008695152140264091</v>
+        <v>0.4269126535935595</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.05953266666666667</v>
+        <v>2.365546333333333</v>
       </c>
       <c r="H3">
-        <v>0.178598</v>
+        <v>7.096639</v>
       </c>
       <c r="I3">
-        <v>0.01698622882665692</v>
+        <v>0.6866153222176684</v>
       </c>
       <c r="J3">
-        <v>0.01698622882665692</v>
+        <v>0.6866153222176683</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>93.25067100000001</v>
       </c>
       <c r="O3">
-        <v>0.4665515560925922</v>
+        <v>0.3615335470438062</v>
       </c>
       <c r="P3">
-        <v>0.4665515560925922</v>
+        <v>0.3615335470438062</v>
       </c>
       <c r="Q3">
-        <v>1.850487037695334</v>
+        <v>73.52959428830766</v>
       </c>
       <c r="R3">
-        <v>16.654383339258</v>
+        <v>661.7663485947691</v>
       </c>
       <c r="S3">
-        <v>0.007924951491221634</v>
+        <v>0.2482344728959796</v>
       </c>
       <c r="T3">
-        <v>0.007924951491221632</v>
+        <v>0.2482344728959796</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.05953266666666667</v>
+        <v>2.365546333333333</v>
       </c>
       <c r="H4">
-        <v>0.178598</v>
+        <v>7.096639</v>
       </c>
       <c r="I4">
-        <v>0.01698622882665692</v>
+        <v>0.6866153222176684</v>
       </c>
       <c r="J4">
-        <v>0.01698622882665692</v>
+        <v>0.6866153222176683</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>4.308092</v>
       </c>
       <c r="O4">
-        <v>0.02155423660586901</v>
+        <v>0.01670250481898457</v>
       </c>
       <c r="P4">
-        <v>0.02155423660586901</v>
+        <v>0.01670250481898457</v>
       </c>
       <c r="Q4">
-        <v>0.08549073500177778</v>
+        <v>3.396997078087555</v>
       </c>
       <c r="R4">
-        <v>0.7694166150160001</v>
+        <v>30.572973702788</v>
       </c>
       <c r="S4">
-        <v>0.000366125195171196</v>
+        <v>0.01146819572812925</v>
       </c>
       <c r="T4">
-        <v>0.000366125195171196</v>
+        <v>0.01146819572812925</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.365546333333334</v>
+        <v>1.079681666666667</v>
       </c>
       <c r="H5">
-        <v>7.096639000000001</v>
+        <v>3.239045</v>
       </c>
       <c r="I5">
-        <v>0.6749523172385904</v>
+        <v>0.3133846777823316</v>
       </c>
       <c r="J5">
-        <v>0.6749523172385903</v>
+        <v>0.3133846777823315</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.10446833333333</v>
+        <v>53.457377</v>
       </c>
       <c r="N5">
-        <v>102.313405</v>
+        <v>160.372131</v>
       </c>
       <c r="O5">
-        <v>0.5118942073015388</v>
+        <v>0.6217639481372091</v>
       </c>
       <c r="P5">
-        <v>0.5118942073015388</v>
+        <v>0.6217639481372091</v>
       </c>
       <c r="Q5">
-        <v>80.67570001619944</v>
+        <v>57.71694989498833</v>
       </c>
       <c r="R5">
-        <v>726.081300145795</v>
+        <v>519.452549054895</v>
       </c>
       <c r="S5">
-        <v>0.345504181399185</v>
+        <v>0.1948512945436496</v>
       </c>
       <c r="T5">
-        <v>0.3455041813991849</v>
+        <v>0.1948512945436496</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.365546333333334</v>
+        <v>1.079681666666667</v>
       </c>
       <c r="H6">
-        <v>7.096639000000001</v>
+        <v>3.239045</v>
       </c>
       <c r="I6">
-        <v>0.6749523172385904</v>
+        <v>0.3133846777823316</v>
       </c>
       <c r="J6">
-        <v>0.6749523172385903</v>
+        <v>0.3133846777823315</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>93.25067100000001</v>
       </c>
       <c r="O6">
-        <v>0.4665515560925922</v>
+        <v>0.3615335470438062</v>
       </c>
       <c r="P6">
-        <v>0.4665515560925922</v>
+        <v>0.3615335470438062</v>
       </c>
       <c r="Q6">
-        <v>73.52959428830768</v>
+        <v>33.56034662768833</v>
       </c>
       <c r="R6">
-        <v>661.7663485947692</v>
+        <v>302.043119649195</v>
       </c>
       <c r="S6">
-        <v>0.3149000538959653</v>
+        <v>0.1132990741478266</v>
       </c>
       <c r="T6">
-        <v>0.3149000538959653</v>
+        <v>0.1132990741478266</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.365546333333334</v>
+        <v>1.079681666666667</v>
       </c>
       <c r="H7">
-        <v>7.096639000000001</v>
+        <v>3.239045</v>
       </c>
       <c r="I7">
-        <v>0.6749523172385904</v>
+        <v>0.3133846777823316</v>
       </c>
       <c r="J7">
-        <v>0.6749523172385903</v>
+        <v>0.3133846777823315</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,208 +868,22 @@
         <v>4.308092</v>
       </c>
       <c r="O7">
-        <v>0.02155423660586901</v>
+        <v>0.01670250481898457</v>
       </c>
       <c r="P7">
-        <v>0.02155423660586901</v>
+        <v>0.01670250481898457</v>
       </c>
       <c r="Q7">
-        <v>3.396997078087556</v>
+        <v>1.550455983571111</v>
       </c>
       <c r="R7">
-        <v>30.572973702788</v>
+        <v>13.95410385214</v>
       </c>
       <c r="S7">
-        <v>0.01454808194344014</v>
+        <v>0.005234309090855322</v>
       </c>
       <c r="T7">
-        <v>0.01454808194344013</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.079681666666667</v>
-      </c>
-      <c r="H8">
-        <v>3.239045</v>
-      </c>
-      <c r="I8">
-        <v>0.3080614539347527</v>
-      </c>
-      <c r="J8">
-        <v>0.3080614539347527</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>34.10446833333333</v>
-      </c>
-      <c r="N8">
-        <v>102.313405</v>
-      </c>
-      <c r="O8">
-        <v>0.5118942073015388</v>
-      </c>
-      <c r="P8">
-        <v>0.5118942073015388</v>
-      </c>
-      <c r="Q8">
-        <v>36.82196921091388</v>
-      </c>
-      <c r="R8">
-        <v>331.397722898225</v>
-      </c>
-      <c r="S8">
-        <v>0.1576948737620897</v>
-      </c>
-      <c r="T8">
-        <v>0.1576948737620897</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.079681666666667</v>
-      </c>
-      <c r="H9">
-        <v>3.239045</v>
-      </c>
-      <c r="I9">
-        <v>0.3080614539347527</v>
-      </c>
-      <c r="J9">
-        <v>0.3080614539347527</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>31.083557</v>
-      </c>
-      <c r="N9">
-        <v>93.25067100000001</v>
-      </c>
-      <c r="O9">
-        <v>0.4665515560925922</v>
-      </c>
-      <c r="P9">
-        <v>0.4665515560925922</v>
-      </c>
-      <c r="Q9">
-        <v>33.56034662768833</v>
-      </c>
-      <c r="R9">
-        <v>302.043119649195</v>
-      </c>
-      <c r="S9">
-        <v>0.1437265507054053</v>
-      </c>
-      <c r="T9">
-        <v>0.1437265507054053</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.079681666666667</v>
-      </c>
-      <c r="H10">
-        <v>3.239045</v>
-      </c>
-      <c r="I10">
-        <v>0.3080614539347527</v>
-      </c>
-      <c r="J10">
-        <v>0.3080614539347527</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.436030666666667</v>
-      </c>
-      <c r="N10">
-        <v>4.308092</v>
-      </c>
-      <c r="O10">
-        <v>0.02155423660586901</v>
-      </c>
-      <c r="P10">
-        <v>0.02155423660586901</v>
-      </c>
-      <c r="Q10">
-        <v>1.550455983571111</v>
-      </c>
-      <c r="R10">
-        <v>13.95410385214</v>
-      </c>
-      <c r="S10">
-        <v>0.006640029467257676</v>
-      </c>
-      <c r="T10">
-        <v>0.006640029467257676</v>
+        <v>0.00523430909085532</v>
       </c>
     </row>
   </sheetData>
